--- a/biology/Zoologie/Hippodamia_quinquesignata/Hippodamia_quinquesignata.xlsx
+++ b/biology/Zoologie/Hippodamia_quinquesignata/Hippodamia_quinquesignata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippodamia quinquesignata (nom vernaculaire anglais, Five-spotted lady beetle) est une espèce d'insectes coléoptères de la famille des Coccinellidae originaire de l'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa livrée est vermillon à rouge vif, ornée de cinq taches noires, parfois deux minuscules points noirs près de la pointe apicale. La taille des taches varie grandement selon les spécimens. Son pronotum est noir luisant, les flancs marginés de blanc. Ses élytres forment un cône évasé et à pointe triangulaire. La base est blanche, suivie d'une bande transversale noire, dont le centre en pointe de flèche rejoint le scutellum. Les quatre macules s'alignent en arc dans la partie médiane. La pointe apicale est infléchie, et s'évase à l'apex. Ses pattes et ses antennes sont noires et luisantes.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du Nouveau-Brunswick à l'Alberta jusqu'en Californie.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (4 mars 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (4 mars 2021) :
 sous-espèce Hippodamia quinquesignata ambigua LeConte, 1852
 sous-espèce Hippodamia quinquesignata punctulata (LeConte, 1852)
 sous-espèce Hippodamia quinquesignata quinquesignata (Kirby, 1837)</t>
